--- a/test_pic/current_data.xlsx
+++ b/test_pic/current_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\Work_OCR\test_pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B3641A-C837-400E-933A-7CD43EE899EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DAAEF0-8D5F-4816-BC24-DC0E33EB5277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>10u</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>-2.2m</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -154,8 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,15 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:G10"/>
+  <dimension ref="B6:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -464,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -484,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -504,7 +515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -524,7 +535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -542,10 +553,441 @@
       </c>
       <c r="G10" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>-0.1041</v>
+      </c>
+      <c r="D13">
+        <v>401.5</v>
+      </c>
+      <c r="E13">
+        <v>601.6</v>
+      </c>
+      <c r="F13">
+        <v>1950</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>28.15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>-7.2</v>
+      </c>
+      <c r="C15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>-800</v>
+      </c>
+      <c r="E15">
+        <v>3.33</v>
+      </c>
+      <c r="F15">
+        <v>0.1205</v>
+      </c>
+      <c r="G15">
+        <v>2500</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.45</v>
+      </c>
+      <c r="C16">
+        <v>-1.26E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E16">
+        <v>1200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3000</v>
+      </c>
+      <c r="C17">
+        <v>-1.25</v>
+      </c>
+      <c r="D17">
+        <v>0.06</v>
+      </c>
+      <c r="E17">
+        <v>-0.5</v>
+      </c>
+      <c r="F17">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G17">
+        <v>-2200</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>-0.1041</v>
+      </c>
+      <c r="D21">
+        <v>401.5</v>
+      </c>
+      <c r="E21">
+        <v>601.6</v>
+      </c>
+      <c r="F21">
+        <v>1950</v>
+      </c>
+      <c r="G21">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>28.15</v>
+      </c>
+      <c r="C22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D22">
+        <v>2E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>-7.2</v>
+      </c>
+      <c r="C23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>-800</v>
+      </c>
+      <c r="E23">
+        <v>3.33</v>
+      </c>
+      <c r="F23">
+        <v>0.1205</v>
+      </c>
+      <c r="G23">
+        <v>2500</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.45</v>
+      </c>
+      <c r="C24">
+        <v>-1.26E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E24">
+        <v>1200</v>
+      </c>
+      <c r="F24">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G24">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3000</v>
+      </c>
+      <c r="C25">
+        <v>-1.25</v>
+      </c>
+      <c r="D25">
+        <v>0.06</v>
+      </c>
+      <c r="E25">
+        <v>-0.5</v>
+      </c>
+      <c r="F25">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G25">
+        <v>-2200</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-1.041E-7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.015E-4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.0159999999999999E-4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-4.0000000000000002E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>2.815E-5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3E-9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.7999999999999999E-8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-4.0000000000000002E-9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.0099999999999999E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>-7.1999999999999997E-6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.4999999999999999E-8</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.3299999999999999E-6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.205E-7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>4.4999999999999998E-7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-1.26E-8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9.9989999999999995E-7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-4.0000000000000002E-9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7.4999999999999993E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-1.2500000000000001E-6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-4.9999999999999998E-7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8.8799999999999997E-6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-1.041E-7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.015E-4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6.0159999999999999E-4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-4.0000000000000002E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>2.815E-5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3E-9</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2.7999999999999999E-8</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-4.0000000000000002E-9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5.0099999999999999E-8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>-7.1999999999999997E-6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.4999999999999999E-8</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.3299999999999999E-6</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.205E-7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>4.4999999999999998E-7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-1.26E-8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9.9989999999999995E-7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-4.0000000000000002E-9</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7.4999999999999993E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1.2500000000000001E-6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-4.9999999999999998E-7</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8.8799999999999997E-6</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-2.2000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>